--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Tnfrsf10b</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7829549142843391</v>
+        <v>0.05716333333333334</v>
       </c>
       <c r="H2">
-        <v>0.7829549142843391</v>
+        <v>0.17149</v>
       </c>
       <c r="I2">
-        <v>0.9379832338728884</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="J2">
-        <v>0.9379832338728884</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.15791055282442</v>
+        <v>7.491694333333332</v>
       </c>
       <c r="N2">
-        <v>4.15791055282442</v>
+        <v>22.475083</v>
       </c>
       <c r="O2">
-        <v>0.4734540948599311</v>
+        <v>0.6030407091893538</v>
       </c>
       <c r="P2">
-        <v>0.4734540948599311</v>
+        <v>0.6030407091893539</v>
       </c>
       <c r="Q2">
-        <v>3.255456500488593</v>
+        <v>0.4282502204077778</v>
       </c>
       <c r="R2">
-        <v>3.255456500488593</v>
+        <v>3.85425198367</v>
       </c>
       <c r="S2">
-        <v>0.4440920029870795</v>
+        <v>0.03782301154156666</v>
       </c>
       <c r="T2">
-        <v>0.4440920029870795</v>
+        <v>0.03782301154156666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7829549142843391</v>
+        <v>0.05716333333333334</v>
       </c>
       <c r="H3">
-        <v>0.7829549142843391</v>
+        <v>0.17149</v>
       </c>
       <c r="I3">
-        <v>0.9379832338728884</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="J3">
-        <v>0.9379832338728884</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.03392276024087</v>
+        <v>3.054063</v>
       </c>
       <c r="N3">
-        <v>3.03392276024087</v>
+        <v>9.162189</v>
       </c>
       <c r="O3">
-        <v>0.3454675457962989</v>
+        <v>0.2458354860040738</v>
       </c>
       <c r="P3">
-        <v>0.3454675457962989</v>
+        <v>0.2458354860040738</v>
       </c>
       <c r="Q3">
-        <v>2.375424734689696</v>
+        <v>0.17458042129</v>
       </c>
       <c r="R3">
-        <v>2.375424734689696</v>
+        <v>1.57122379161</v>
       </c>
       <c r="S3">
-        <v>0.3240427658041426</v>
+        <v>0.01541892327129627</v>
       </c>
       <c r="T3">
-        <v>0.3240427658041426</v>
+        <v>0.01541892327129627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7829549142843391</v>
+        <v>0.05716333333333334</v>
       </c>
       <c r="H4">
-        <v>0.7829549142843391</v>
+        <v>0.17149</v>
       </c>
       <c r="I4">
-        <v>0.9379832338728884</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="J4">
-        <v>0.9379832338728884</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.59024418497497</v>
+        <v>0.1353556666666667</v>
       </c>
       <c r="N4">
-        <v>1.59024418497497</v>
+        <v>0.406067</v>
       </c>
       <c r="O4">
-        <v>0.1810783593437699</v>
+        <v>0.01089539609968931</v>
       </c>
       <c r="P4">
-        <v>0.1810783593437699</v>
+        <v>0.01089539609968931</v>
       </c>
       <c r="Q4">
-        <v>1.245089499538246</v>
+        <v>0.007737381092222224</v>
       </c>
       <c r="R4">
-        <v>1.245089499538246</v>
+        <v>0.06963642983</v>
       </c>
       <c r="S4">
-        <v>0.1698484650816662</v>
+        <v>0.0006833646321862016</v>
       </c>
       <c r="T4">
-        <v>0.1698484650816662</v>
+        <v>0.0006833646321862016</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.0517667374572973</v>
+        <v>0.05716333333333334</v>
       </c>
       <c r="H5">
-        <v>0.0517667374572973</v>
+        <v>0.17149</v>
       </c>
       <c r="I5">
-        <v>0.06201676612711152</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="J5">
-        <v>0.06201676612711152</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.15791055282442</v>
+        <v>1.742085333333333</v>
       </c>
       <c r="N5">
-        <v>4.15791055282442</v>
+        <v>5.226256</v>
       </c>
       <c r="O5">
-        <v>0.4734540948599311</v>
+        <v>0.1402284087068829</v>
       </c>
       <c r="P5">
-        <v>0.4734540948599311</v>
+        <v>0.1402284087068829</v>
       </c>
       <c r="Q5">
-        <v>0.2152414639589876</v>
+        <v>0.09958340460444445</v>
       </c>
       <c r="R5">
-        <v>0.2152414639589876</v>
+        <v>0.8962506414400001</v>
       </c>
       <c r="S5">
-        <v>0.02936209187285162</v>
+        <v>0.008795195150433128</v>
       </c>
       <c r="T5">
-        <v>0.02936209187285162</v>
+        <v>0.00879519515043313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0517667374572973</v>
+        <v>0.7939349999999999</v>
       </c>
       <c r="H6">
-        <v>0.0517667374572973</v>
+        <v>2.381805</v>
       </c>
       <c r="I6">
-        <v>0.06201676612711152</v>
+        <v>0.871117777304756</v>
       </c>
       <c r="J6">
-        <v>0.06201676612711152</v>
+        <v>0.8711177773047561</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.03392276024087</v>
+        <v>7.491694333333332</v>
       </c>
       <c r="N6">
-        <v>3.03392276024087</v>
+        <v>22.475083</v>
       </c>
       <c r="O6">
-        <v>0.3454675457962989</v>
+        <v>0.6030407091893538</v>
       </c>
       <c r="P6">
-        <v>0.3454675457962989</v>
+        <v>0.6030407091893539</v>
       </c>
       <c r="Q6">
-        <v>0.1570562829951078</v>
+        <v>5.947918340534999</v>
       </c>
       <c r="R6">
-        <v>0.1570562829951078</v>
+        <v>53.531265064815</v>
       </c>
       <c r="S6">
-        <v>0.02142477999215626</v>
+        <v>0.5253194822133137</v>
       </c>
       <c r="T6">
-        <v>0.02142477999215626</v>
+        <v>0.5253194822133138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0517667374572973</v>
+        <v>0.7939349999999999</v>
       </c>
       <c r="H7">
-        <v>0.0517667374572973</v>
+        <v>2.381805</v>
       </c>
       <c r="I7">
-        <v>0.06201676612711152</v>
+        <v>0.871117777304756</v>
       </c>
       <c r="J7">
-        <v>0.06201676612711152</v>
+        <v>0.8711177773047561</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.59024418497497</v>
+        <v>3.054063</v>
       </c>
       <c r="N7">
-        <v>1.59024418497497</v>
+        <v>9.162189</v>
       </c>
       <c r="O7">
-        <v>0.1810783593437699</v>
+        <v>0.2458354860040738</v>
       </c>
       <c r="P7">
-        <v>0.1810783593437699</v>
+        <v>0.2458354860040738</v>
       </c>
       <c r="Q7">
-        <v>0.08232175321659299</v>
+        <v>2.424727507905</v>
       </c>
       <c r="R7">
-        <v>0.08232175321659299</v>
+        <v>21.822547571145</v>
       </c>
       <c r="S7">
-        <v>0.01122989426210364</v>
+        <v>0.2141516621505032</v>
       </c>
       <c r="T7">
-        <v>0.01122989426210364</v>
+        <v>0.2141516621505033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.7939349999999999</v>
+      </c>
+      <c r="H8">
+        <v>2.381805</v>
+      </c>
+      <c r="I8">
+        <v>0.871117777304756</v>
+      </c>
+      <c r="J8">
+        <v>0.8711177773047561</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1353556666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.406067</v>
+      </c>
+      <c r="O8">
+        <v>0.01089539609968931</v>
+      </c>
+      <c r="P8">
+        <v>0.01089539609968931</v>
+      </c>
+      <c r="Q8">
+        <v>0.107463601215</v>
+      </c>
+      <c r="R8">
+        <v>0.9671724109350001</v>
+      </c>
+      <c r="S8">
+        <v>0.009491173233216256</v>
+      </c>
+      <c r="T8">
+        <v>0.009491173233216257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7939349999999999</v>
+      </c>
+      <c r="H9">
+        <v>2.381805</v>
+      </c>
+      <c r="I9">
+        <v>0.871117777304756</v>
+      </c>
+      <c r="J9">
+        <v>0.8711177773047561</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.742085333333333</v>
+      </c>
+      <c r="N9">
+        <v>5.226256</v>
+      </c>
+      <c r="O9">
+        <v>0.1402284087068829</v>
+      </c>
+      <c r="P9">
+        <v>0.1402284087068829</v>
+      </c>
+      <c r="Q9">
+        <v>1.38310251912</v>
+      </c>
+      <c r="R9">
+        <v>12.44792267208</v>
+      </c>
+      <c r="S9">
+        <v>0.1221554597077227</v>
+      </c>
+      <c r="T9">
+        <v>0.1221554597077228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.003934</v>
+      </c>
+      <c r="H10">
+        <v>0.011802</v>
+      </c>
+      <c r="I10">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="J10">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.491694333333332</v>
+      </c>
+      <c r="N10">
+        <v>22.475083</v>
+      </c>
+      <c r="O10">
+        <v>0.6030407091893538</v>
+      </c>
+      <c r="P10">
+        <v>0.6030407091893539</v>
+      </c>
+      <c r="Q10">
+        <v>0.02947232550733333</v>
+      </c>
+      <c r="R10">
+        <v>0.265250929566</v>
+      </c>
+      <c r="S10">
+        <v>0.002602992490603357</v>
+      </c>
+      <c r="T10">
+        <v>0.002602992490603358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.003934</v>
+      </c>
+      <c r="H11">
+        <v>0.011802</v>
+      </c>
+      <c r="I11">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="J11">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.054063</v>
+      </c>
+      <c r="N11">
+        <v>9.162189</v>
+      </c>
+      <c r="O11">
+        <v>0.2458354860040738</v>
+      </c>
+      <c r="P11">
+        <v>0.2458354860040738</v>
+      </c>
+      <c r="Q11">
+        <v>0.012014683842</v>
+      </c>
+      <c r="R11">
+        <v>0.108132154578</v>
+      </c>
+      <c r="S11">
+        <v>0.001061135532379955</v>
+      </c>
+      <c r="T11">
+        <v>0.001061135532379956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.003934</v>
+      </c>
+      <c r="H12">
+        <v>0.011802</v>
+      </c>
+      <c r="I12">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="J12">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1353556666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.406067</v>
+      </c>
+      <c r="O12">
+        <v>0.01089539609968931</v>
+      </c>
+      <c r="P12">
+        <v>0.01089539609968931</v>
+      </c>
+      <c r="Q12">
+        <v>0.0005324891926666667</v>
+      </c>
+      <c r="R12">
+        <v>0.004792402734</v>
+      </c>
+      <c r="S12">
+        <v>4.702938590624264E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.702938590624265E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.003934</v>
+      </c>
+      <c r="H13">
+        <v>0.011802</v>
+      </c>
+      <c r="I13">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="J13">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.742085333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.226256</v>
+      </c>
+      <c r="O13">
+        <v>0.1402284087068829</v>
+      </c>
+      <c r="P13">
+        <v>0.1402284087068829</v>
+      </c>
+      <c r="Q13">
+        <v>0.006853363701333334</v>
+      </c>
+      <c r="R13">
+        <v>0.061680273312</v>
+      </c>
+      <c r="S13">
+        <v>0.0006052883151519725</v>
+      </c>
+      <c r="T13">
+        <v>0.0006052883151519727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.05636566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.169097</v>
+      </c>
+      <c r="I14">
+        <v>0.06184528237572023</v>
+      </c>
+      <c r="J14">
+        <v>0.06184528237572024</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.491694333333332</v>
+      </c>
+      <c r="N14">
+        <v>22.475083</v>
+      </c>
+      <c r="O14">
+        <v>0.6030407091893538</v>
+      </c>
+      <c r="P14">
+        <v>0.6030407091893539</v>
+      </c>
+      <c r="Q14">
+        <v>0.4222743455612222</v>
+      </c>
+      <c r="R14">
+        <v>3.800469110051</v>
+      </c>
+      <c r="S14">
+        <v>0.03729522294387017</v>
+      </c>
+      <c r="T14">
+        <v>0.03729522294387019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.05636566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.169097</v>
+      </c>
+      <c r="I15">
+        <v>0.06184528237572023</v>
+      </c>
+      <c r="J15">
+        <v>0.06184528237572024</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.054063</v>
+      </c>
+      <c r="N15">
+        <v>9.162189</v>
+      </c>
+      <c r="O15">
+        <v>0.2458354860040738</v>
+      </c>
+      <c r="P15">
+        <v>0.2458354860040738</v>
+      </c>
+      <c r="Q15">
+        <v>0.172144297037</v>
+      </c>
+      <c r="R15">
+        <v>1.549298673333</v>
+      </c>
+      <c r="S15">
+        <v>0.01520376504989436</v>
+      </c>
+      <c r="T15">
+        <v>0.01520376504989437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.05636566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.169097</v>
+      </c>
+      <c r="I16">
+        <v>0.06184528237572023</v>
+      </c>
+      <c r="J16">
+        <v>0.06184528237572024</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1353556666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.406067</v>
+      </c>
+      <c r="O16">
+        <v>0.01089539609968931</v>
+      </c>
+      <c r="P16">
+        <v>0.01089539609968931</v>
+      </c>
+      <c r="Q16">
+        <v>0.007629412388777779</v>
+      </c>
+      <c r="R16">
+        <v>0.068664711499</v>
+      </c>
+      <c r="S16">
+        <v>0.000673828848380606</v>
+      </c>
+      <c r="T16">
+        <v>0.000673828848380606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.05636566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.169097</v>
+      </c>
+      <c r="I17">
+        <v>0.06184528237572023</v>
+      </c>
+      <c r="J17">
+        <v>0.06184528237572024</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.742085333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.226256</v>
+      </c>
+      <c r="O17">
+        <v>0.1402284087068829</v>
+      </c>
+      <c r="P17">
+        <v>0.1402284087068829</v>
+      </c>
+      <c r="Q17">
+        <v>0.09819380120355557</v>
+      </c>
+      <c r="R17">
+        <v>0.8837442108320001</v>
+      </c>
+      <c r="S17">
+        <v>0.008672465533575079</v>
+      </c>
+      <c r="T17">
+        <v>0.008672465533575082</v>
       </c>
     </row>
   </sheetData>
